--- a/data/Map016.xlsx
+++ b/data/Map016.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6FD58F-151C-4B75-BCDB-47200F1CDFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>植物</t>
   </si>
@@ -179,21 +184,118 @@
     <t>\n&lt;リリー&gt;誰だったのよ！？
 怖いわ！！</t>
   </si>
+  <si>
+    <t>Tiger Raising Journal</t>
+  </si>
+  <si>
+    <t>The tiger is as ferocious today as ever! A researcher nearly had
+his arm torn clean off. Being trapped underground all the time,
+it's no surprise she's got all this pent up anger.</t>
+  </si>
+  <si>
+    <t>The tiger was in high spirits today! She really seemed to enjoy 
+our specially blended silver vine mix.
+She really is just a giant cat, after all!</t>
+  </si>
+  <si>
+    <t>Today I tried to feed an orc to the tiger.
+I was concerned she wouldn't be able to injure a monster,
+but she tore right into its neck. So strong!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Today, with the magic she collected from Lily, Dr. Chocolate
+conducted an experiment to turn the tiger into a succubus.
+She's a lab animal after, so I knew this was coming, but still...</t>
+  </si>
+  <si>
+    <t>Chocolat's Lab Report
+Succubus-ification successful!</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>If the tiger won't come down from her favorite spot,
+step on the nearby switch. A pole will shoot out of the hole,
+surprising her into jumping down.</t>
+  </si>
+  <si>
+    <t>※Do not step on the switch if the tiger is on top of the hole.
+She will get very angry.</t>
+  </si>
+  <si>
+    <t>Lab Animal
+Tiger</t>
+  </si>
+  <si>
+    <t>Feed with beef or horse meat. (Dislikes fatty meat. Red meat only.)
+※Since her succubus transformation, only feed her semen from slaves,
+male staff members, or adventurers.</t>
+  </si>
+  <si>
+    <t>Male personnel should be extremely cautious when entering the pen.
+They may be forced down, and drained of their semen.
+We must not forget the tragedy of Tommy, our researcher.</t>
+  </si>
+  <si>
+    <t>Despite being underground, the grass has overgrown.
+If you want to grow cat grass, take responsibility and mow it!
+It's become a jungle. I can't tell where anything is now.</t>
+  </si>
+  <si>
+    <t>See answer</t>
+  </si>
+  <si>
+    <t>While avoiding the tiger, cut the grass and search for a switch.
+The switch is around the top center of the room. The switch 
+produces a stick, which you can hit with your hookshot.</t>
+  </si>
+  <si>
+    <t>With the 'Tiger's Silver Vine', you can dramatically
+weaken the tiger.</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Who...!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Who's there...?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Who's there!?
+Hey, who's out there!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Who was that!?
+I'm scared!!</t>
+  </si>
+  <si>
+    <t>How to solve this room...</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,28 +303,41 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -512,255 +627,318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.140625" customWidth="1"/>
+    <col min="2" max="2" width="86.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B36" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B37" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B38" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="B41" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B42" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="B43" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B45" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>